--- a/biology/Botanique/Parrotia_persica/Parrotia_persica.xlsx
+++ b/biology/Botanique/Parrotia_persica/Parrotia_persica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parrotie de Perse (Parrotia persica),  encore appelé arbre de fer en raison de la dureté de son bois, est une espèce d'arbres de la famille des Hamamelidaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire du nord de l'Iran et du sud-est de l'Azerbaïdjan.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre de fer est un grand arbuste ou un arbre de taille moyenne mesurant de 5 à 10 m, jusqu’à 20 m dans son aire naturelle. Il a un port très étalé, plus large que haut, des troncs trapus et de multiples branches se recourbant.
 Son écorce gris-brun, s’exfoliant en plaques dégageant des zones jaunes, comme celle du platane. Ses jeunes rameaux vert-brun à pubescence fine produisent des bourgeons pourpre-noir, légèrement pubescents.
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parrotie de Perse est un arbre très rustique (jusqu'à -25 °C). Il apprécie un sol riche et acide mais supporte un sol calcaire. Le semis est difficile et long. On le greffe souvent sur Hamamélis.
 Prévoir un espace important pour cet arbre qui a tendance à s'étaler beaucoup, voire à s'enraciner à nouveau (marcottage) au niveau de ses branches les plus basses.
@@ -609,7 +627,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On le plante souvent en sujet isolé pour son feuillage. En automne, il vire au jaune puis au rouge et devient alors très décoratif (notamment lors de la phase multicolore, lorsque les feuilles sont à la fois vertes, jaunes, orangées et rouges, du centre vers les bords).
 </t>
@@ -640,7 +660,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Parrotia (latin) : du nom de son découvreur, le naturaliste allemand F.W. Parrot.
 persica (latin) : de Perse (Iran).</t>
